--- a/xls/14002-108-240005222 (Employee)_4.xlsx
+++ b/xls/14002-108-240005222 (Employee)_4.xlsx
@@ -591,37 +591,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>ค่ารักษาพยาบาลทั่วไป</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>40,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>ค่าวัคซีนพยาบาลทั่วไป</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>40,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ค่าวัคซีนพยาบาลทั่วไป</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
